--- a/output/bajas_cli_mes_1.xlsx
+++ b/output/bajas_cli_mes_1.xlsx
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
